--- a/database/industries/shishe/kehamda/product/quarterly_seprated.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326E6BCA-0F33-466A-A394-554128895EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863E29A-3C52-47A4-9DA0-9C803A3329BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,24 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,6 +49,9 @@
     <t>فصل اول منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -76,6 +61,9 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>جمع فروش داخلی</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
   </si>
   <si>
     <t>ریال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -645,16 +630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N75"/>
+  <dimension ref="B1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -663,13 +648,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,13 +660,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -697,13 +672,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -712,13 +682,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -729,13 +694,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -746,13 +706,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -761,13 +716,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -788,23 +738,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -813,15 +748,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -830,91 +760,56 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>18524</v>
-      </c>
-      <c r="F11" s="11">
-        <v>19340</v>
+        <v>15378</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="11">
-        <v>17463</v>
+        <v>15450</v>
       </c>
       <c r="H11" s="11">
-        <v>18700</v>
+        <v>15617</v>
       </c>
       <c r="I11" s="11">
-        <v>16626</v>
-      </c>
-      <c r="J11" s="11">
-        <v>18911</v>
-      </c>
-      <c r="K11" s="11">
-        <v>15378</v>
-      </c>
-      <c r="L11" s="11">
-        <v>17638</v>
-      </c>
-      <c r="M11" s="11">
-        <v>15450</v>
-      </c>
-      <c r="N11" s="11">
-        <v>15617</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>18524</v>
+        <v>15378</v>
       </c>
       <c r="F12" s="13">
-        <v>19340</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>17463</v>
+        <v>15450</v>
       </c>
       <c r="H12" s="13">
-        <v>18700</v>
+        <v>15617</v>
       </c>
       <c r="I12" s="13">
-        <v>16626</v>
-      </c>
-      <c r="J12" s="13">
-        <v>18911</v>
-      </c>
-      <c r="K12" s="13">
-        <v>15378</v>
-      </c>
-      <c r="L12" s="13">
-        <v>17638</v>
-      </c>
-      <c r="M12" s="13">
-        <v>15450</v>
-      </c>
-      <c r="N12" s="13">
-        <v>15617</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -923,91 +818,56 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
-        <v>726</v>
-      </c>
-      <c r="F14" s="11">
-        <v>686</v>
+        <v>1325</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G14" s="11">
-        <v>614</v>
+        <v>1276</v>
       </c>
       <c r="H14" s="11">
-        <v>766</v>
+        <v>2262</v>
       </c>
       <c r="I14" s="11">
-        <v>1170</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1022</v>
-      </c>
-      <c r="K14" s="11">
-        <v>1325</v>
-      </c>
-      <c r="L14" s="11">
-        <v>1315</v>
-      </c>
-      <c r="M14" s="11">
-        <v>1276</v>
-      </c>
-      <c r="N14" s="11">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>726</v>
+        <v>1325</v>
       </c>
       <c r="F15" s="13">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>614</v>
+        <v>1276</v>
       </c>
       <c r="H15" s="13">
-        <v>766</v>
+        <v>2262</v>
       </c>
       <c r="I15" s="13">
-        <v>1170</v>
-      </c>
-      <c r="J15" s="13">
-        <v>1022</v>
-      </c>
-      <c r="K15" s="13">
-        <v>1325</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1315</v>
-      </c>
-      <c r="M15" s="13">
-        <v>1276</v>
-      </c>
-      <c r="N15" s="13">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1016,15 +876,10 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1043,72 +898,42 @@
       <c r="I17" s="17">
         <v>0</v>
       </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <v>-144</v>
-      </c>
-      <c r="F18" s="13">
-        <v>-21</v>
-      </c>
-      <c r="G18" s="13">
-        <v>-31</v>
-      </c>
-      <c r="H18" s="13">
-        <v>-14</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="17">
-        <v>0</v>
+      <c r="F19" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="17">
         <v>0</v>
@@ -1119,60 +944,30 @@
       <c r="I19" s="17">
         <v>0</v>
       </c>
-      <c r="J19" s="17">
-        <v>0</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>19106</v>
+        <v>16703</v>
       </c>
       <c r="F20" s="13">
-        <v>20005</v>
+        <v>0</v>
       </c>
       <c r="G20" s="13">
-        <v>18046</v>
+        <v>16726</v>
       </c>
       <c r="H20" s="13">
-        <v>19452</v>
+        <v>17879</v>
       </c>
       <c r="I20" s="13">
-        <v>17796</v>
-      </c>
-      <c r="J20" s="13">
-        <v>19933</v>
-      </c>
-      <c r="K20" s="13">
-        <v>16703</v>
-      </c>
-      <c r="L20" s="13">
-        <v>18953</v>
-      </c>
-      <c r="M20" s="13">
-        <v>16726</v>
-      </c>
-      <c r="N20" s="13">
-        <v>17879</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1181,13 +976,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1196,13 +986,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1211,15 +996,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1238,23 +1018,8 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1263,15 +1028,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1280,91 +1040,56 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>726562</v>
-      </c>
-      <c r="F27" s="11">
-        <v>862152</v>
+        <v>1546562</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="11">
-        <v>897058</v>
+        <v>1814434</v>
       </c>
       <c r="H27" s="11">
-        <v>1118132</v>
+        <v>2168218</v>
       </c>
       <c r="I27" s="11">
-        <v>1322949</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1633259</v>
-      </c>
-      <c r="K27" s="11">
-        <v>1546562</v>
-      </c>
-      <c r="L27" s="11">
-        <v>1832863</v>
-      </c>
-      <c r="M27" s="11">
-        <v>1814434</v>
-      </c>
-      <c r="N27" s="11">
-        <v>2168218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1547362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>726562</v>
+        <v>1546562</v>
       </c>
       <c r="F28" s="13">
-        <v>862152</v>
+        <v>0</v>
       </c>
       <c r="G28" s="13">
-        <v>897058</v>
+        <v>1814434</v>
       </c>
       <c r="H28" s="13">
-        <v>1118132</v>
+        <v>2168218</v>
       </c>
       <c r="I28" s="13">
-        <v>1322949</v>
-      </c>
-      <c r="J28" s="13">
-        <v>1633259</v>
-      </c>
-      <c r="K28" s="13">
-        <v>1546562</v>
-      </c>
-      <c r="L28" s="13">
-        <v>1832863</v>
-      </c>
-      <c r="M28" s="13">
-        <v>1814434</v>
-      </c>
-      <c r="N28" s="13">
-        <v>2168218</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1547362</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1373,91 +1098,56 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>30377</v>
-      </c>
-      <c r="F30" s="11">
-        <v>33711</v>
+        <v>90809</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="11">
-        <v>41539</v>
+        <v>88613</v>
       </c>
       <c r="H30" s="11">
-        <v>41801</v>
+        <v>174669</v>
       </c>
       <c r="I30" s="11">
-        <v>67176</v>
-      </c>
-      <c r="J30" s="11">
-        <v>67416</v>
-      </c>
-      <c r="K30" s="11">
-        <v>90809</v>
-      </c>
-      <c r="L30" s="11">
-        <v>83314</v>
-      </c>
-      <c r="M30" s="11">
-        <v>88613</v>
-      </c>
-      <c r="N30" s="11">
-        <v>174669</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>565501</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>30377</v>
+        <v>90809</v>
       </c>
       <c r="F31" s="13">
-        <v>33711</v>
+        <v>0</v>
       </c>
       <c r="G31" s="13">
-        <v>41539</v>
+        <v>88613</v>
       </c>
       <c r="H31" s="13">
-        <v>41801</v>
+        <v>174669</v>
       </c>
       <c r="I31" s="13">
-        <v>67176</v>
-      </c>
-      <c r="J31" s="13">
-        <v>67416</v>
-      </c>
-      <c r="K31" s="13">
-        <v>90809</v>
-      </c>
-      <c r="L31" s="13">
-        <v>83314</v>
-      </c>
-      <c r="M31" s="13">
-        <v>88613</v>
-      </c>
-      <c r="N31" s="13">
-        <v>174669</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>565501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1466,15 +1156,10 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1493,138 +1178,78 @@
       <c r="I33" s="17">
         <v>0</v>
       </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
-        <v>0</v>
-      </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="13">
-        <v>-3862</v>
-      </c>
-      <c r="F34" s="13">
-        <v>-790</v>
-      </c>
-      <c r="G34" s="13">
-        <v>-1552</v>
-      </c>
-      <c r="H34" s="13">
-        <v>-977</v>
-      </c>
-      <c r="I34" s="13">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13" t="s">
+      <c r="E34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
-        <v>-564</v>
-      </c>
-      <c r="F35" s="17">
-        <v>-487</v>
+        <v>0</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G35" s="17">
-        <v>-642</v>
+        <v>0</v>
       </c>
       <c r="H35" s="17">
-        <v>-785</v>
+        <v>0</v>
       </c>
       <c r="I35" s="17">
-        <v>-118</v>
-      </c>
-      <c r="J35" s="17">
-        <v>0</v>
-      </c>
-      <c r="K35" s="17">
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <v>0</v>
-      </c>
-      <c r="N35" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>752513</v>
+        <v>1637371</v>
       </c>
       <c r="F36" s="13">
-        <v>894586</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>936403</v>
+        <v>1903047</v>
       </c>
       <c r="H36" s="13">
-        <v>1158171</v>
+        <v>2342887</v>
       </c>
       <c r="I36" s="13">
-        <v>1390007</v>
-      </c>
-      <c r="J36" s="13">
-        <v>1700675</v>
-      </c>
-      <c r="K36" s="13">
-        <v>1637371</v>
-      </c>
-      <c r="L36" s="13">
-        <v>1916177</v>
-      </c>
-      <c r="M36" s="13">
-        <v>1903047</v>
-      </c>
-      <c r="N36" s="13">
-        <v>2342887</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>2112863</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1633,13 +1258,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1648,13 +1268,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1663,15 +1278,10 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1690,23 +1300,8 @@
       <c r="I40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1715,15 +1310,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1732,54 +1322,34 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>39222738</v>
+        <v>100569775</v>
       </c>
       <c r="F43" s="11">
-        <v>44578697</v>
+        <v>103915580</v>
       </c>
       <c r="G43" s="11">
-        <v>51369066</v>
+        <v>117439094</v>
       </c>
       <c r="H43" s="11">
-        <v>59793155</v>
+        <v>138837037</v>
       </c>
       <c r="I43" s="11">
-        <v>79640399</v>
-      </c>
-      <c r="J43" s="11">
-        <v>86365554</v>
-      </c>
-      <c r="K43" s="11">
-        <v>100569775</v>
-      </c>
-      <c r="L43" s="11">
-        <v>103915580</v>
-      </c>
-      <c r="M43" s="11">
-        <v>117439094</v>
-      </c>
-      <c r="N43" s="11">
-        <v>138837037</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>138330234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1788,52 +1358,32 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>41841598</v>
+        <v>68535094</v>
       </c>
       <c r="F45" s="11">
-        <v>49141399</v>
+        <v>63356654</v>
       </c>
       <c r="G45" s="11">
-        <v>67653094</v>
+        <v>69445925</v>
       </c>
       <c r="H45" s="11">
-        <v>54570496</v>
+        <v>77218833</v>
       </c>
       <c r="I45" s="11">
-        <v>57415385</v>
-      </c>
-      <c r="J45" s="11">
-        <v>65964775</v>
-      </c>
-      <c r="K45" s="11">
-        <v>68535094</v>
-      </c>
-      <c r="L45" s="11">
-        <v>63356654</v>
-      </c>
-      <c r="M45" s="11">
-        <v>69445925</v>
-      </c>
-      <c r="N45" s="11">
-        <v>77218833</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>93255442</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1842,13 +1392,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1857,13 +1402,8 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1872,15 +1412,10 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1899,23 +1434,8 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1924,15 +1444,10 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1941,91 +1456,56 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>-318079</v>
+        <v>-551702</v>
       </c>
       <c r="F52" s="11">
-        <v>-378815</v>
+        <v>-697930</v>
       </c>
       <c r="G52" s="11">
-        <v>-382469</v>
+        <v>-751771</v>
       </c>
       <c r="H52" s="11">
-        <v>-490035</v>
+        <v>-933062</v>
       </c>
       <c r="I52" s="11">
-        <v>-501731</v>
-      </c>
-      <c r="J52" s="11">
-        <v>-594497</v>
-      </c>
-      <c r="K52" s="11">
-        <v>-551702</v>
-      </c>
-      <c r="L52" s="11">
-        <v>-697930</v>
-      </c>
-      <c r="M52" s="11">
-        <v>-751771</v>
-      </c>
-      <c r="N52" s="11">
-        <v>-933062</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-718788</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>-318079</v>
+        <v>-551702</v>
       </c>
       <c r="F53" s="13">
-        <v>-378815</v>
+        <v>-697930</v>
       </c>
       <c r="G53" s="13">
-        <v>-382469</v>
+        <v>-751771</v>
       </c>
       <c r="H53" s="13">
-        <v>-490035</v>
+        <v>-933062</v>
       </c>
       <c r="I53" s="13">
-        <v>-501731</v>
-      </c>
-      <c r="J53" s="13">
-        <v>-594497</v>
-      </c>
-      <c r="K53" s="13">
-        <v>-551702</v>
-      </c>
-      <c r="L53" s="13">
-        <v>-697930</v>
-      </c>
-      <c r="M53" s="13">
-        <v>-751771</v>
-      </c>
-      <c r="N53" s="13">
-        <v>-933062</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-718788</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2034,91 +1514,56 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>-12399</v>
+        <v>-42362</v>
       </c>
       <c r="F55" s="11">
-        <v>-12977</v>
+        <v>-56608</v>
       </c>
       <c r="G55" s="11">
-        <v>-12045</v>
+        <v>-60421</v>
       </c>
       <c r="H55" s="11">
-        <v>-19854</v>
+        <v>-127399</v>
       </c>
       <c r="I55" s="11">
-        <v>-30316</v>
-      </c>
-      <c r="J55" s="11">
-        <v>-37351</v>
-      </c>
-      <c r="K55" s="11">
-        <v>-42362</v>
-      </c>
-      <c r="L55" s="11">
-        <v>-56608</v>
-      </c>
-      <c r="M55" s="11">
-        <v>-60421</v>
-      </c>
-      <c r="N55" s="11">
-        <v>-127399</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-450170</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>-12399</v>
+        <v>-42362</v>
       </c>
       <c r="F56" s="13">
-        <v>-12977</v>
+        <v>-56608</v>
       </c>
       <c r="G56" s="13">
-        <v>-12045</v>
+        <v>-60421</v>
       </c>
       <c r="H56" s="13">
-        <v>-19854</v>
+        <v>-127399</v>
       </c>
       <c r="I56" s="13">
-        <v>-30316</v>
-      </c>
-      <c r="J56" s="13">
-        <v>-37351</v>
-      </c>
-      <c r="K56" s="13">
-        <v>-42362</v>
-      </c>
-      <c r="L56" s="13">
-        <v>-56608</v>
-      </c>
-      <c r="M56" s="13">
-        <v>-60421</v>
-      </c>
-      <c r="N56" s="13">
-        <v>-127399</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-450170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -2127,15 +1572,10 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -2154,67 +1594,37 @@
       <c r="I58" s="17">
         <v>0</v>
       </c>
-      <c r="J58" s="17">
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
-        <v>0</v>
-      </c>
-      <c r="L58" s="17">
-        <v>0</v>
-      </c>
-      <c r="M58" s="17">
-        <v>0</v>
-      </c>
-      <c r="N58" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D59" s="13"/>
-      <c r="E59" s="13">
-        <v>4104</v>
-      </c>
-      <c r="F59" s="13">
-        <v>344</v>
-      </c>
-      <c r="G59" s="13">
-        <v>-344</v>
-      </c>
-      <c r="H59" s="13">
-        <v>1457</v>
-      </c>
-      <c r="I59" s="13">
-        <v>156</v>
-      </c>
-      <c r="J59" s="13" t="s">
+      <c r="E59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17">
@@ -2232,60 +1642,30 @@
       <c r="I60" s="17">
         <v>0</v>
       </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-      <c r="K60" s="17">
-        <v>0</v>
-      </c>
-      <c r="L60" s="17">
-        <v>0</v>
-      </c>
-      <c r="M60" s="17">
-        <v>0</v>
-      </c>
-      <c r="N60" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>-326374</v>
+        <v>-594064</v>
       </c>
       <c r="F61" s="13">
-        <v>-391448</v>
+        <v>-754538</v>
       </c>
       <c r="G61" s="13">
-        <v>-394858</v>
+        <v>-812192</v>
       </c>
       <c r="H61" s="13">
-        <v>-508432</v>
+        <v>-1060461</v>
       </c>
       <c r="I61" s="13">
-        <v>-531891</v>
-      </c>
-      <c r="J61" s="13">
-        <v>-631848</v>
-      </c>
-      <c r="K61" s="13">
-        <v>-594064</v>
-      </c>
-      <c r="L61" s="13">
-        <v>-754538</v>
-      </c>
-      <c r="M61" s="13">
-        <v>-812192</v>
-      </c>
-      <c r="N61" s="13">
-        <v>-1060461</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1168958</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2294,13 +1674,8 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2309,13 +1684,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2324,15 +1694,10 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2351,23 +1716,8 @@
       <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N65" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2376,15 +1726,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2393,91 +1738,56 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>408483</v>
+        <v>994860</v>
       </c>
       <c r="F68" s="11">
-        <v>483337</v>
+        <v>1134933</v>
       </c>
       <c r="G68" s="11">
-        <v>513647</v>
+        <v>1062663</v>
       </c>
       <c r="H68" s="11">
-        <v>625113</v>
+        <v>1235156</v>
       </c>
       <c r="I68" s="11">
-        <v>817114</v>
-      </c>
-      <c r="J68" s="11">
-        <v>1038762</v>
-      </c>
-      <c r="K68" s="11">
-        <v>994860</v>
-      </c>
-      <c r="L68" s="11">
-        <v>1134933</v>
-      </c>
-      <c r="M68" s="11">
-        <v>1062663</v>
-      </c>
-      <c r="N68" s="11">
-        <v>1235156</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+        <v>828574</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>408483</v>
+        <v>994860</v>
       </c>
       <c r="F69" s="13">
-        <v>483337</v>
+        <v>1134933</v>
       </c>
       <c r="G69" s="13">
-        <v>513647</v>
+        <v>1062663</v>
       </c>
       <c r="H69" s="13">
-        <v>625113</v>
+        <v>1235156</v>
       </c>
       <c r="I69" s="13">
-        <v>817114</v>
-      </c>
-      <c r="J69" s="13">
-        <v>1038762</v>
-      </c>
-      <c r="K69" s="13">
-        <v>994860</v>
-      </c>
-      <c r="L69" s="13">
-        <v>1134933</v>
-      </c>
-      <c r="M69" s="13">
-        <v>1062663</v>
-      </c>
-      <c r="N69" s="13">
-        <v>1235156</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+        <v>828574</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2486,91 +1796,56 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>17978</v>
+        <v>48447</v>
       </c>
       <c r="F71" s="11">
-        <v>20734</v>
+        <v>26706</v>
       </c>
       <c r="G71" s="11">
-        <v>29494</v>
+        <v>28192</v>
       </c>
       <c r="H71" s="11">
-        <v>21947</v>
+        <v>47270</v>
       </c>
       <c r="I71" s="11">
-        <v>36860</v>
-      </c>
-      <c r="J71" s="11">
-        <v>30065</v>
-      </c>
-      <c r="K71" s="11">
-        <v>48447</v>
-      </c>
-      <c r="L71" s="11">
-        <v>26706</v>
-      </c>
-      <c r="M71" s="11">
-        <v>28192</v>
-      </c>
-      <c r="N71" s="11">
-        <v>47270</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>115331</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>17978</v>
+        <v>48447</v>
       </c>
       <c r="F72" s="13">
-        <v>20734</v>
+        <v>26706</v>
       </c>
       <c r="G72" s="13">
-        <v>29494</v>
+        <v>28192</v>
       </c>
       <c r="H72" s="13">
-        <v>21947</v>
+        <v>47270</v>
       </c>
       <c r="I72" s="13">
-        <v>36860</v>
-      </c>
-      <c r="J72" s="13">
-        <v>30065</v>
-      </c>
-      <c r="K72" s="13">
-        <v>48447</v>
-      </c>
-      <c r="L72" s="13">
-        <v>26706</v>
-      </c>
-      <c r="M72" s="13">
-        <v>28192</v>
-      </c>
-      <c r="N72" s="13">
-        <v>47270</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+        <v>115331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2579,15 +1854,10 @@
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -2606,57 +1876,27 @@
       <c r="I74" s="17">
         <v>0</v>
       </c>
-      <c r="J74" s="17">
-        <v>0</v>
-      </c>
-      <c r="K74" s="17">
-        <v>0</v>
-      </c>
-      <c r="L74" s="17">
-        <v>0</v>
-      </c>
-      <c r="M74" s="17">
-        <v>0</v>
-      </c>
-      <c r="N74" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>426461</v>
+        <v>1043307</v>
       </c>
       <c r="F75" s="13">
-        <v>504071</v>
+        <v>1161639</v>
       </c>
       <c r="G75" s="13">
-        <v>543141</v>
+        <v>1090855</v>
       </c>
       <c r="H75" s="13">
-        <v>647060</v>
+        <v>1282426</v>
       </c>
       <c r="I75" s="13">
-        <v>853974</v>
-      </c>
-      <c r="J75" s="13">
-        <v>1068827</v>
-      </c>
-      <c r="K75" s="13">
-        <v>1043307</v>
-      </c>
-      <c r="L75" s="13">
-        <v>1161639</v>
-      </c>
-      <c r="M75" s="13">
-        <v>1090855</v>
-      </c>
-      <c r="N75" s="13">
-        <v>1282426</v>
+        <v>943905</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/quarterly_seprated.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5863E29A-3C52-47A4-9DA0-9C803A3329BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B4202-65B9-404C-ABB6-E64DE0ACB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -61,28 +76,28 @@
     <t>تن</t>
   </si>
   <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -630,16 +645,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I75"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,8 +663,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +680,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -672,8 +697,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -682,8 +712,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -694,8 +729,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -706,8 +746,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -716,8 +761,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -738,8 +788,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -748,10 +813,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -760,56 +830,91 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>19340</v>
+      </c>
+      <c r="F11" s="11">
+        <v>17463</v>
+      </c>
+      <c r="G11" s="11">
+        <v>18700</v>
+      </c>
+      <c r="H11" s="11">
+        <v>16560</v>
+      </c>
+      <c r="I11" s="11">
+        <v>18911</v>
+      </c>
+      <c r="J11" s="11">
         <v>15378</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>17638</v>
+      </c>
+      <c r="L11" s="11">
         <v>15450</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>15617</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>11186</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>19340</v>
+      </c>
+      <c r="F12" s="13">
+        <v>17463</v>
+      </c>
+      <c r="G12" s="13">
+        <v>18700</v>
+      </c>
+      <c r="H12" s="13">
+        <v>16560</v>
+      </c>
+      <c r="I12" s="13">
+        <v>18911</v>
+      </c>
+      <c r="J12" s="13">
         <v>15378</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>17638</v>
+      </c>
+      <c r="L12" s="13">
         <v>15450</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>15617</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>11186</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -818,56 +923,91 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
+        <v>686</v>
+      </c>
+      <c r="F14" s="11">
+        <v>614</v>
+      </c>
+      <c r="G14" s="11">
+        <v>766</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1170</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1022</v>
+      </c>
+      <c r="J14" s="11">
         <v>1325</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="K14" s="11">
+        <v>1315</v>
+      </c>
+      <c r="L14" s="11">
         <v>1276</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>2262</v>
       </c>
-      <c r="I14" s="11">
+      <c r="N14" s="11">
         <v>6064</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>686</v>
+      </c>
+      <c r="F15" s="13">
+        <v>614</v>
+      </c>
+      <c r="G15" s="13">
+        <v>766</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1170</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1022</v>
+      </c>
+      <c r="J15" s="13">
         <v>1325</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="K15" s="13">
+        <v>1315</v>
+      </c>
+      <c r="L15" s="13">
         <v>1276</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2262</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>6064</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -876,10 +1016,15 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -898,42 +1043,72 @@
       <c r="I17" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>-21</v>
+      </c>
+      <c r="F18" s="13">
+        <v>-31</v>
+      </c>
+      <c r="G18" s="13">
+        <v>-14</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>13</v>
+      <c r="F19" s="17">
+        <v>0</v>
       </c>
       <c r="G19" s="17">
         <v>0</v>
@@ -944,30 +1119,60 @@
       <c r="I19" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>20005</v>
+      </c>
+      <c r="F20" s="13">
+        <v>18046</v>
+      </c>
+      <c r="G20" s="13">
+        <v>19452</v>
+      </c>
+      <c r="H20" s="13">
+        <v>17730</v>
+      </c>
+      <c r="I20" s="13">
+        <v>19933</v>
+      </c>
+      <c r="J20" s="13">
         <v>16703</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="K20" s="13">
+        <v>18953</v>
+      </c>
+      <c r="L20" s="13">
         <v>16726</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>17879</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>17250</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -976,8 +1181,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -986,8 +1196,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -996,10 +1211,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1018,8 +1238,23 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1028,10 +1263,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1040,56 +1280,91 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>862152</v>
+      </c>
+      <c r="F27" s="11">
+        <v>897058</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1118132</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1318845</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1633259</v>
+      </c>
+      <c r="J27" s="11">
         <v>1546562</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="K27" s="11">
+        <v>1832863</v>
+      </c>
+      <c r="L27" s="11">
         <v>1814434</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>2168218</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>1547362</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
+        <v>862152</v>
+      </c>
+      <c r="F28" s="13">
+        <v>897058</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1118132</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1318845</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1633259</v>
+      </c>
+      <c r="J28" s="13">
         <v>1546562</v>
       </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="K28" s="13">
+        <v>1832863</v>
+      </c>
+      <c r="L28" s="13">
         <v>1814434</v>
       </c>
-      <c r="H28" s="13">
+      <c r="M28" s="13">
         <v>2168218</v>
       </c>
-      <c r="I28" s="13">
+      <c r="N28" s="13">
         <v>1547362</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1098,56 +1373,91 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>33711</v>
+      </c>
+      <c r="F30" s="11">
+        <v>41539</v>
+      </c>
+      <c r="G30" s="11">
+        <v>41801</v>
+      </c>
+      <c r="H30" s="11">
+        <v>67176</v>
+      </c>
+      <c r="I30" s="11">
+        <v>67416</v>
+      </c>
+      <c r="J30" s="11">
         <v>90809</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
+        <v>83314</v>
+      </c>
+      <c r="L30" s="11">
         <v>88613</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>174669</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>565501</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
+        <v>33711</v>
+      </c>
+      <c r="F31" s="13">
+        <v>41539</v>
+      </c>
+      <c r="G31" s="13">
+        <v>41801</v>
+      </c>
+      <c r="H31" s="13">
+        <v>67176</v>
+      </c>
+      <c r="I31" s="13">
+        <v>67416</v>
+      </c>
+      <c r="J31" s="13">
         <v>90809</v>
       </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="K31" s="13">
+        <v>83314</v>
+      </c>
+      <c r="L31" s="13">
         <v>88613</v>
       </c>
-      <c r="H31" s="13">
+      <c r="M31" s="13">
         <v>174669</v>
       </c>
-      <c r="I31" s="13">
+      <c r="N31" s="13">
         <v>565501</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1156,10 +1466,15 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1178,78 +1493,138 @@
       <c r="I33" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="K33" s="17">
+        <v>0</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13">
+        <v>-790</v>
+      </c>
+      <c r="F34" s="13">
+        <v>-1552</v>
+      </c>
+      <c r="G34" s="13">
+        <v>-977</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>13</v>
+        <v>-487</v>
+      </c>
+      <c r="F35" s="17">
+        <v>-642</v>
       </c>
       <c r="G35" s="17">
-        <v>0</v>
+        <v>-785</v>
       </c>
       <c r="H35" s="17">
-        <v>0</v>
+        <v>-118</v>
       </c>
       <c r="I35" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>894586</v>
+      </c>
+      <c r="F36" s="13">
+        <v>936403</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1158171</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1385903</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1700675</v>
+      </c>
+      <c r="J36" s="13">
         <v>1637371</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>1916177</v>
+      </c>
+      <c r="L36" s="13">
         <v>1903047</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>2342887</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>2112863</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1258,8 +1633,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1268,8 +1648,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1278,10 +1663,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1300,8 +1690,23 @@
       <c r="I40" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1310,10 +1715,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1322,34 +1732,54 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>44578697</v>
+      </c>
+      <c r="F43" s="11">
+        <v>51369066</v>
+      </c>
+      <c r="G43" s="11">
+        <v>59793155</v>
+      </c>
+      <c r="H43" s="11">
+        <v>79640399</v>
+      </c>
+      <c r="I43" s="11">
+        <v>86365554</v>
+      </c>
+      <c r="J43" s="11">
         <v>100569775</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>103915580</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>117439094</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>138837037</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>138330234</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1358,32 +1788,52 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>49141399</v>
+      </c>
+      <c r="F45" s="11">
+        <v>67653094</v>
+      </c>
+      <c r="G45" s="11">
+        <v>54570496</v>
+      </c>
+      <c r="H45" s="11">
+        <v>57415385</v>
+      </c>
+      <c r="I45" s="11">
+        <v>65964775</v>
+      </c>
+      <c r="J45" s="11">
         <v>68535094</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>63356654</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>69445925</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>77218833</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>93255442</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1392,8 +1842,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1402,8 +1857,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1412,10 +1872,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1434,8 +1899,23 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1444,10 +1924,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -1456,56 +1941,91 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>-378815</v>
+      </c>
+      <c r="F52" s="11">
+        <v>-382469</v>
+      </c>
+      <c r="G52" s="11">
+        <v>-490035</v>
+      </c>
+      <c r="H52" s="11">
+        <v>-501731</v>
+      </c>
+      <c r="I52" s="11">
+        <v>-594497</v>
+      </c>
+      <c r="J52" s="11">
         <v>-551702</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>-697930</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>-751771</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>-933062</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>-718788</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>-378815</v>
+      </c>
+      <c r="F53" s="13">
+        <v>-382469</v>
+      </c>
+      <c r="G53" s="13">
+        <v>-490035</v>
+      </c>
+      <c r="H53" s="13">
+        <v>-501731</v>
+      </c>
+      <c r="I53" s="13">
+        <v>-594497</v>
+      </c>
+      <c r="J53" s="13">
         <v>-551702</v>
       </c>
-      <c r="F53" s="13">
+      <c r="K53" s="13">
         <v>-697930</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
         <v>-751771</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>-933062</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>-718788</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1514,56 +2034,91 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>-12977</v>
+      </c>
+      <c r="F55" s="11">
+        <v>-12045</v>
+      </c>
+      <c r="G55" s="11">
+        <v>-19854</v>
+      </c>
+      <c r="H55" s="11">
+        <v>-30316</v>
+      </c>
+      <c r="I55" s="11">
+        <v>-37351</v>
+      </c>
+      <c r="J55" s="11">
         <v>-42362</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>-56608</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>-60421</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>-127399</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>-450170</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>-12977</v>
+      </c>
+      <c r="F56" s="13">
+        <v>-12045</v>
+      </c>
+      <c r="G56" s="13">
+        <v>-19854</v>
+      </c>
+      <c r="H56" s="13">
+        <v>-30316</v>
+      </c>
+      <c r="I56" s="13">
+        <v>-37351</v>
+      </c>
+      <c r="J56" s="13">
         <v>-42362</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>-56608</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>-60421</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>-127399</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>-450170</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1572,10 +2127,15 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -1594,37 +2154,67 @@
       <c r="I58" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="17">
+        <v>0</v>
+      </c>
+      <c r="K58" s="17">
+        <v>0</v>
+      </c>
+      <c r="L58" s="17">
+        <v>0</v>
+      </c>
+      <c r="M58" s="17">
+        <v>0</v>
+      </c>
+      <c r="N58" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13">
+        <v>344</v>
+      </c>
+      <c r="F59" s="13">
+        <v>-344</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1457</v>
+      </c>
+      <c r="H59" s="13">
+        <v>156</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17">
@@ -1642,30 +2232,60 @@
       <c r="I60" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="17">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17">
+        <v>0</v>
+      </c>
+      <c r="L60" s="17">
+        <v>0</v>
+      </c>
+      <c r="M60" s="17">
+        <v>0</v>
+      </c>
+      <c r="N60" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
+        <v>-391448</v>
+      </c>
+      <c r="F61" s="13">
+        <v>-394858</v>
+      </c>
+      <c r="G61" s="13">
+        <v>-508432</v>
+      </c>
+      <c r="H61" s="13">
+        <v>-531891</v>
+      </c>
+      <c r="I61" s="13">
+        <v>-631848</v>
+      </c>
+      <c r="J61" s="13">
         <v>-594064</v>
       </c>
-      <c r="F61" s="13">
+      <c r="K61" s="13">
         <v>-754538</v>
       </c>
-      <c r="G61" s="13">
+      <c r="L61" s="13">
         <v>-812192</v>
       </c>
-      <c r="H61" s="13">
+      <c r="M61" s="13">
         <v>-1060461</v>
       </c>
-      <c r="I61" s="13">
+      <c r="N61" s="13">
         <v>-1168958</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1674,8 +2294,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1684,8 +2309,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1694,10 +2324,15 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -1716,8 +2351,23 @@
       <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1726,10 +2376,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -1738,56 +2393,91 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>483337</v>
+      </c>
+      <c r="F68" s="11">
+        <v>513647</v>
+      </c>
+      <c r="G68" s="11">
+        <v>625113</v>
+      </c>
+      <c r="H68" s="11">
+        <v>817114</v>
+      </c>
+      <c r="I68" s="11">
+        <v>1038762</v>
+      </c>
+      <c r="J68" s="11">
         <v>994860</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>1134933</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>1062663</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>1235156</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>828574</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
+        <v>483337</v>
+      </c>
+      <c r="F69" s="13">
+        <v>513647</v>
+      </c>
+      <c r="G69" s="13">
+        <v>625113</v>
+      </c>
+      <c r="H69" s="13">
+        <v>817114</v>
+      </c>
+      <c r="I69" s="13">
+        <v>1038762</v>
+      </c>
+      <c r="J69" s="13">
         <v>994860</v>
       </c>
-      <c r="F69" s="13">
+      <c r="K69" s="13">
         <v>1134933</v>
       </c>
-      <c r="G69" s="13">
+      <c r="L69" s="13">
         <v>1062663</v>
       </c>
-      <c r="H69" s="13">
+      <c r="M69" s="13">
         <v>1235156</v>
       </c>
-      <c r="I69" s="13">
+      <c r="N69" s="13">
         <v>828574</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1796,56 +2486,91 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>20734</v>
+      </c>
+      <c r="F71" s="11">
+        <v>29494</v>
+      </c>
+      <c r="G71" s="11">
+        <v>21947</v>
+      </c>
+      <c r="H71" s="11">
+        <v>36860</v>
+      </c>
+      <c r="I71" s="11">
+        <v>30065</v>
+      </c>
+      <c r="J71" s="11">
         <v>48447</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>26706</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>28192</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>47270</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>115331</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
+        <v>20734</v>
+      </c>
+      <c r="F72" s="13">
+        <v>29494</v>
+      </c>
+      <c r="G72" s="13">
+        <v>21947</v>
+      </c>
+      <c r="H72" s="13">
+        <v>36860</v>
+      </c>
+      <c r="I72" s="13">
+        <v>30065</v>
+      </c>
+      <c r="J72" s="13">
         <v>48447</v>
       </c>
-      <c r="F72" s="13">
+      <c r="K72" s="13">
         <v>26706</v>
       </c>
-      <c r="G72" s="13">
+      <c r="L72" s="13">
         <v>28192</v>
       </c>
-      <c r="H72" s="13">
+      <c r="M72" s="13">
         <v>47270</v>
       </c>
-      <c r="I72" s="13">
+      <c r="N72" s="13">
         <v>115331</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -1854,10 +2579,15 @@
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -1876,26 +2606,56 @@
       <c r="I74" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="17">
+        <v>0</v>
+      </c>
+      <c r="K74" s="17">
+        <v>0</v>
+      </c>
+      <c r="L74" s="17">
+        <v>0</v>
+      </c>
+      <c r="M74" s="17">
+        <v>0</v>
+      </c>
+      <c r="N74" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>504071</v>
+      </c>
+      <c r="F75" s="13">
+        <v>543141</v>
+      </c>
+      <c r="G75" s="13">
+        <v>647060</v>
+      </c>
+      <c r="H75" s="13">
+        <v>853974</v>
+      </c>
+      <c r="I75" s="13">
+        <v>1068827</v>
+      </c>
+      <c r="J75" s="13">
         <v>1043307</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>1161639</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>1090855</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>1282426</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>943905</v>
       </c>
     </row>

--- a/database/industries/shishe/kehamda/product/quarterly_seprated.xlsx
+++ b/database/industries/shishe/kehamda/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136B4202-65B9-404C-ABB6-E64DE0ACB428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D29710A-2697-4782-8833-9AFD1E98200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -649,12 +649,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -669,7 +669,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -718,7 +718,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -767,7 +767,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -804,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -819,7 +819,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -845,74 +845,74 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>19340</v>
+        <v>17463</v>
       </c>
       <c r="F11" s="11">
-        <v>17463</v>
+        <v>18700</v>
       </c>
       <c r="G11" s="11">
-        <v>18700</v>
+        <v>16560</v>
       </c>
       <c r="H11" s="11">
-        <v>16560</v>
+        <v>18911</v>
       </c>
       <c r="I11" s="11">
-        <v>18911</v>
+        <v>15378</v>
       </c>
       <c r="J11" s="11">
-        <v>15378</v>
+        <v>17638</v>
       </c>
       <c r="K11" s="11">
-        <v>17638</v>
+        <v>15450</v>
       </c>
       <c r="L11" s="11">
-        <v>15450</v>
+        <v>15617</v>
       </c>
       <c r="M11" s="11">
-        <v>15617</v>
+        <v>11186</v>
       </c>
       <c r="N11" s="11">
-        <v>11186</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>19340</v>
+        <v>17463</v>
       </c>
       <c r="F12" s="13">
-        <v>17463</v>
+        <v>18700</v>
       </c>
       <c r="G12" s="13">
-        <v>18700</v>
+        <v>16560</v>
       </c>
       <c r="H12" s="13">
-        <v>16560</v>
+        <v>18911</v>
       </c>
       <c r="I12" s="13">
-        <v>18911</v>
+        <v>15378</v>
       </c>
       <c r="J12" s="13">
-        <v>15378</v>
+        <v>17638</v>
       </c>
       <c r="K12" s="13">
-        <v>17638</v>
+        <v>15450</v>
       </c>
       <c r="L12" s="13">
-        <v>15450</v>
+        <v>15617</v>
       </c>
       <c r="M12" s="13">
-        <v>15617</v>
+        <v>11186</v>
       </c>
       <c r="N12" s="13">
-        <v>11186</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,74 +938,74 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
-        <v>686</v>
+        <v>614</v>
       </c>
       <c r="F14" s="11">
-        <v>614</v>
+        <v>766</v>
       </c>
       <c r="G14" s="11">
-        <v>766</v>
+        <v>1170</v>
       </c>
       <c r="H14" s="11">
-        <v>1170</v>
+        <v>1022</v>
       </c>
       <c r="I14" s="11">
-        <v>1022</v>
+        <v>1325</v>
       </c>
       <c r="J14" s="11">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="K14" s="11">
-        <v>1315</v>
+        <v>1276</v>
       </c>
       <c r="L14" s="11">
-        <v>1276</v>
+        <v>2262</v>
       </c>
       <c r="M14" s="11">
-        <v>2262</v>
+        <v>6064</v>
       </c>
       <c r="N14" s="11">
-        <v>6064</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>686</v>
+        <v>614</v>
       </c>
       <c r="F15" s="13">
-        <v>614</v>
+        <v>766</v>
       </c>
       <c r="G15" s="13">
-        <v>766</v>
+        <v>1170</v>
       </c>
       <c r="H15" s="13">
-        <v>1170</v>
+        <v>1022</v>
       </c>
       <c r="I15" s="13">
-        <v>1022</v>
+        <v>1325</v>
       </c>
       <c r="J15" s="13">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="K15" s="13">
-        <v>1315</v>
+        <v>1276</v>
       </c>
       <c r="L15" s="13">
-        <v>1276</v>
+        <v>2262</v>
       </c>
       <c r="M15" s="13">
-        <v>2262</v>
+        <v>6064</v>
       </c>
       <c r="N15" s="13">
-        <v>6064</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
@@ -1068,16 +1068,16 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>-21</v>
+        <v>-31</v>
       </c>
       <c r="F18" s="13">
-        <v>-31</v>
+        <v>-14</v>
       </c>
       <c r="G18" s="13">
-        <v>-14</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>25</v>
@@ -1098,7 +1098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
@@ -1135,44 +1135,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>20005</v>
+        <v>18046</v>
       </c>
       <c r="F20" s="13">
-        <v>18046</v>
+        <v>19452</v>
       </c>
       <c r="G20" s="13">
-        <v>19452</v>
+        <v>17730</v>
       </c>
       <c r="H20" s="13">
-        <v>17730</v>
+        <v>19933</v>
       </c>
       <c r="I20" s="13">
-        <v>19933</v>
+        <v>16703</v>
       </c>
       <c r="J20" s="13">
-        <v>16703</v>
+        <v>18953</v>
       </c>
       <c r="K20" s="13">
-        <v>18953</v>
+        <v>16726</v>
       </c>
       <c r="L20" s="13">
-        <v>16726</v>
+        <v>17879</v>
       </c>
       <c r="M20" s="13">
-        <v>17879</v>
+        <v>17250</v>
       </c>
       <c r="N20" s="13">
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30909</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1187,7 +1187,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1202,7 +1202,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1217,7 +1217,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1269,7 +1269,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1295,74 +1295,74 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>862152</v>
+        <v>897058</v>
       </c>
       <c r="F27" s="11">
-        <v>897058</v>
+        <v>1118132</v>
       </c>
       <c r="G27" s="11">
-        <v>1118132</v>
+        <v>1318845</v>
       </c>
       <c r="H27" s="11">
-        <v>1318845</v>
+        <v>1633259</v>
       </c>
       <c r="I27" s="11">
-        <v>1633259</v>
+        <v>1546562</v>
       </c>
       <c r="J27" s="11">
-        <v>1546562</v>
+        <v>1832863</v>
       </c>
       <c r="K27" s="11">
-        <v>1832863</v>
+        <v>1814434</v>
       </c>
       <c r="L27" s="11">
-        <v>1814434</v>
+        <v>2168218</v>
       </c>
       <c r="M27" s="11">
-        <v>2168218</v>
+        <v>1547362</v>
       </c>
       <c r="N27" s="11">
-        <v>1547362</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3024901</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>862152</v>
+        <v>897058</v>
       </c>
       <c r="F28" s="13">
-        <v>897058</v>
+        <v>1118132</v>
       </c>
       <c r="G28" s="13">
-        <v>1118132</v>
+        <v>1318845</v>
       </c>
       <c r="H28" s="13">
-        <v>1318845</v>
+        <v>1633259</v>
       </c>
       <c r="I28" s="13">
-        <v>1633259</v>
+        <v>1546562</v>
       </c>
       <c r="J28" s="13">
-        <v>1546562</v>
+        <v>1832863</v>
       </c>
       <c r="K28" s="13">
-        <v>1832863</v>
+        <v>1814434</v>
       </c>
       <c r="L28" s="13">
-        <v>1814434</v>
+        <v>2168218</v>
       </c>
       <c r="M28" s="13">
-        <v>2168218</v>
+        <v>1547362</v>
       </c>
       <c r="N28" s="13">
-        <v>1547362</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3024901</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1388,74 +1388,74 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>33711</v>
+        <v>41539</v>
       </c>
       <c r="F30" s="11">
-        <v>41539</v>
+        <v>41801</v>
       </c>
       <c r="G30" s="11">
-        <v>41801</v>
+        <v>67176</v>
       </c>
       <c r="H30" s="11">
-        <v>67176</v>
+        <v>67416</v>
       </c>
       <c r="I30" s="11">
-        <v>67416</v>
+        <v>90809</v>
       </c>
       <c r="J30" s="11">
-        <v>90809</v>
+        <v>83314</v>
       </c>
       <c r="K30" s="11">
-        <v>83314</v>
+        <v>88613</v>
       </c>
       <c r="L30" s="11">
-        <v>88613</v>
+        <v>174669</v>
       </c>
       <c r="M30" s="11">
-        <v>174669</v>
+        <v>565501</v>
       </c>
       <c r="N30" s="11">
-        <v>565501</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>731031</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>33711</v>
+        <v>41539</v>
       </c>
       <c r="F31" s="13">
-        <v>41539</v>
+        <v>41801</v>
       </c>
       <c r="G31" s="13">
-        <v>41801</v>
+        <v>67176</v>
       </c>
       <c r="H31" s="13">
-        <v>67176</v>
+        <v>67416</v>
       </c>
       <c r="I31" s="13">
-        <v>67416</v>
+        <v>90809</v>
       </c>
       <c r="J31" s="13">
-        <v>90809</v>
+        <v>83314</v>
       </c>
       <c r="K31" s="13">
-        <v>83314</v>
+        <v>88613</v>
       </c>
       <c r="L31" s="13">
-        <v>88613</v>
+        <v>174669</v>
       </c>
       <c r="M31" s="13">
-        <v>174669</v>
+        <v>565501</v>
       </c>
       <c r="N31" s="13">
-        <v>565501</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>731031</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
@@ -1518,16 +1518,16 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>-790</v>
+        <v>-1552</v>
       </c>
       <c r="F34" s="13">
-        <v>-1552</v>
+        <v>-977</v>
       </c>
       <c r="G34" s="13">
-        <v>-977</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>25</v>
@@ -1548,7 +1548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>26</v>
       </c>
@@ -1557,16 +1557,16 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
-        <v>-487</v>
+        <v>-642</v>
       </c>
       <c r="F35" s="17">
-        <v>-642</v>
+        <v>-785</v>
       </c>
       <c r="G35" s="17">
-        <v>-785</v>
+        <v>-118</v>
       </c>
       <c r="H35" s="17">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="I35" s="17">
         <v>0</v>
@@ -1587,44 +1587,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>894586</v>
+        <v>936403</v>
       </c>
       <c r="F36" s="13">
-        <v>936403</v>
+        <v>1158171</v>
       </c>
       <c r="G36" s="13">
-        <v>1158171</v>
+        <v>1385903</v>
       </c>
       <c r="H36" s="13">
-        <v>1385903</v>
+        <v>1700675</v>
       </c>
       <c r="I36" s="13">
-        <v>1700675</v>
+        <v>1637371</v>
       </c>
       <c r="J36" s="13">
-        <v>1637371</v>
+        <v>1916177</v>
       </c>
       <c r="K36" s="13">
-        <v>1916177</v>
+        <v>1903047</v>
       </c>
       <c r="L36" s="13">
-        <v>1903047</v>
+        <v>2342887</v>
       </c>
       <c r="M36" s="13">
-        <v>2342887</v>
+        <v>2112863</v>
       </c>
       <c r="N36" s="13">
-        <v>2112863</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3755932</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1654,7 +1654,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1669,7 +1669,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>16</v>
       </c>
@@ -1747,37 +1747,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>44578697</v>
+        <v>51369066</v>
       </c>
       <c r="F43" s="11">
-        <v>51369066</v>
+        <v>59793155</v>
       </c>
       <c r="G43" s="11">
-        <v>59793155</v>
+        <v>79640399</v>
       </c>
       <c r="H43" s="11">
-        <v>79640399</v>
+        <v>86365554</v>
       </c>
       <c r="I43" s="11">
-        <v>86365554</v>
+        <v>100569775</v>
       </c>
       <c r="J43" s="11">
-        <v>100569775</v>
+        <v>103915580</v>
       </c>
       <c r="K43" s="11">
-        <v>103915580</v>
+        <v>117439094</v>
       </c>
       <c r="L43" s="11">
-        <v>117439094</v>
+        <v>138837037</v>
       </c>
       <c r="M43" s="11">
-        <v>138837037</v>
+        <v>138330234</v>
       </c>
       <c r="N43" s="11">
-        <v>138330234</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121088067</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>16</v>
       </c>
@@ -1803,37 +1803,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>49141399</v>
+        <v>67653094</v>
       </c>
       <c r="F45" s="11">
-        <v>67653094</v>
+        <v>54570496</v>
       </c>
       <c r="G45" s="11">
-        <v>54570496</v>
+        <v>57415385</v>
       </c>
       <c r="H45" s="11">
-        <v>57415385</v>
+        <v>65964775</v>
       </c>
       <c r="I45" s="11">
-        <v>65964775</v>
+        <v>68535094</v>
       </c>
       <c r="J45" s="11">
-        <v>68535094</v>
+        <v>63356654</v>
       </c>
       <c r="K45" s="11">
-        <v>63356654</v>
+        <v>69445925</v>
       </c>
       <c r="L45" s="11">
-        <v>69445925</v>
+        <v>77218833</v>
       </c>
       <c r="M45" s="11">
-        <v>77218833</v>
+        <v>93255442</v>
       </c>
       <c r="N45" s="11">
-        <v>93255442</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123318320</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1848,7 +1848,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1878,7 +1878,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>37</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>16</v>
       </c>
@@ -1956,74 +1956,74 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>-378815</v>
+        <v>-382469</v>
       </c>
       <c r="F52" s="11">
-        <v>-382469</v>
+        <v>-490035</v>
       </c>
       <c r="G52" s="11">
-        <v>-490035</v>
+        <v>-501731</v>
       </c>
       <c r="H52" s="11">
-        <v>-501731</v>
+        <v>-594497</v>
       </c>
       <c r="I52" s="11">
-        <v>-594497</v>
+        <v>-551702</v>
       </c>
       <c r="J52" s="11">
-        <v>-551702</v>
+        <v>-697930</v>
       </c>
       <c r="K52" s="11">
-        <v>-697930</v>
+        <v>-751771</v>
       </c>
       <c r="L52" s="11">
-        <v>-751771</v>
+        <v>-933062</v>
       </c>
       <c r="M52" s="11">
-        <v>-933062</v>
+        <v>-718788</v>
       </c>
       <c r="N52" s="11">
-        <v>-718788</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1683421</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>-378815</v>
+        <v>-382469</v>
       </c>
       <c r="F53" s="13">
-        <v>-382469</v>
+        <v>-490035</v>
       </c>
       <c r="G53" s="13">
-        <v>-490035</v>
+        <v>-501731</v>
       </c>
       <c r="H53" s="13">
-        <v>-501731</v>
+        <v>-594497</v>
       </c>
       <c r="I53" s="13">
-        <v>-594497</v>
+        <v>-551702</v>
       </c>
       <c r="J53" s="13">
-        <v>-551702</v>
+        <v>-697930</v>
       </c>
       <c r="K53" s="13">
-        <v>-697930</v>
+        <v>-751771</v>
       </c>
       <c r="L53" s="13">
-        <v>-751771</v>
+        <v>-933062</v>
       </c>
       <c r="M53" s="13">
-        <v>-933062</v>
+        <v>-718788</v>
       </c>
       <c r="N53" s="13">
-        <v>-718788</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1683421</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>40</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2049,74 +2049,74 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>-12977</v>
+        <v>-12045</v>
       </c>
       <c r="F55" s="11">
-        <v>-12045</v>
+        <v>-19854</v>
       </c>
       <c r="G55" s="11">
-        <v>-19854</v>
+        <v>-30316</v>
       </c>
       <c r="H55" s="11">
-        <v>-30316</v>
+        <v>-37351</v>
       </c>
       <c r="I55" s="11">
-        <v>-37351</v>
+        <v>-42362</v>
       </c>
       <c r="J55" s="11">
-        <v>-42362</v>
+        <v>-56608</v>
       </c>
       <c r="K55" s="11">
-        <v>-56608</v>
+        <v>-60421</v>
       </c>
       <c r="L55" s="11">
-        <v>-60421</v>
+        <v>-127399</v>
       </c>
       <c r="M55" s="11">
-        <v>-127399</v>
+        <v>-450170</v>
       </c>
       <c r="N55" s="11">
-        <v>-450170</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-430918</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>-12977</v>
+        <v>-12045</v>
       </c>
       <c r="F56" s="13">
-        <v>-12045</v>
+        <v>-19854</v>
       </c>
       <c r="G56" s="13">
-        <v>-19854</v>
+        <v>-30316</v>
       </c>
       <c r="H56" s="13">
-        <v>-30316</v>
+        <v>-37351</v>
       </c>
       <c r="I56" s="13">
-        <v>-37351</v>
+        <v>-42362</v>
       </c>
       <c r="J56" s="13">
-        <v>-42362</v>
+        <v>-56608</v>
       </c>
       <c r="K56" s="13">
-        <v>-56608</v>
+        <v>-60421</v>
       </c>
       <c r="L56" s="13">
-        <v>-60421</v>
+        <v>-127399</v>
       </c>
       <c r="M56" s="13">
-        <v>-127399</v>
+        <v>-450170</v>
       </c>
       <c r="N56" s="13">
-        <v>-450170</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-430918</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>42</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
         <v>43</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>23</v>
       </c>
@@ -2179,16 +2179,16 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>344</v>
+        <v>-344</v>
       </c>
       <c r="F59" s="13">
-        <v>-344</v>
+        <v>1457</v>
       </c>
       <c r="G59" s="13">
-        <v>1457</v>
-      </c>
-      <c r="H59" s="13">
         <v>156</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>25</v>
@@ -2209,7 +2209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>26</v>
       </c>
@@ -2248,44 +2248,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>-391448</v>
+        <v>-394858</v>
       </c>
       <c r="F61" s="13">
-        <v>-394858</v>
+        <v>-508432</v>
       </c>
       <c r="G61" s="13">
-        <v>-508432</v>
+        <v>-531891</v>
       </c>
       <c r="H61" s="13">
-        <v>-531891</v>
+        <v>-631848</v>
       </c>
       <c r="I61" s="13">
-        <v>-631848</v>
+        <v>-594064</v>
       </c>
       <c r="J61" s="13">
-        <v>-594064</v>
+        <v>-754538</v>
       </c>
       <c r="K61" s="13">
-        <v>-754538</v>
+        <v>-812192</v>
       </c>
       <c r="L61" s="13">
-        <v>-812192</v>
+        <v>-1060461</v>
       </c>
       <c r="M61" s="13">
-        <v>-1060461</v>
+        <v>-1168958</v>
       </c>
       <c r="N61" s="13">
-        <v>-1168958</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2114339</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2300,7 +2300,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2315,7 +2315,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>44</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>45</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
@@ -2408,74 +2408,74 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>483337</v>
+        <v>513647</v>
       </c>
       <c r="F68" s="11">
-        <v>513647</v>
+        <v>625113</v>
       </c>
       <c r="G68" s="11">
-        <v>625113</v>
+        <v>817114</v>
       </c>
       <c r="H68" s="11">
-        <v>817114</v>
+        <v>1038762</v>
       </c>
       <c r="I68" s="11">
-        <v>1038762</v>
+        <v>994860</v>
       </c>
       <c r="J68" s="11">
-        <v>994860</v>
+        <v>1134933</v>
       </c>
       <c r="K68" s="11">
-        <v>1134933</v>
+        <v>1062663</v>
       </c>
       <c r="L68" s="11">
-        <v>1062663</v>
+        <v>1235156</v>
       </c>
       <c r="M68" s="11">
-        <v>1235156</v>
+        <v>828574</v>
       </c>
       <c r="N68" s="11">
-        <v>828574</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1341480</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>483337</v>
+        <v>513647</v>
       </c>
       <c r="F69" s="13">
-        <v>513647</v>
+        <v>625113</v>
       </c>
       <c r="G69" s="13">
-        <v>625113</v>
+        <v>817114</v>
       </c>
       <c r="H69" s="13">
-        <v>817114</v>
+        <v>1038762</v>
       </c>
       <c r="I69" s="13">
-        <v>1038762</v>
+        <v>994860</v>
       </c>
       <c r="J69" s="13">
-        <v>994860</v>
+        <v>1134933</v>
       </c>
       <c r="K69" s="13">
-        <v>1134933</v>
+        <v>1062663</v>
       </c>
       <c r="L69" s="13">
-        <v>1062663</v>
+        <v>1235156</v>
       </c>
       <c r="M69" s="13">
-        <v>1235156</v>
+        <v>828574</v>
       </c>
       <c r="N69" s="13">
-        <v>828574</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1341480</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>47</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2501,74 +2501,74 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>20734</v>
+        <v>29494</v>
       </c>
       <c r="F71" s="11">
-        <v>29494</v>
+        <v>21947</v>
       </c>
       <c r="G71" s="11">
-        <v>21947</v>
+        <v>36860</v>
       </c>
       <c r="H71" s="11">
-        <v>36860</v>
+        <v>30065</v>
       </c>
       <c r="I71" s="11">
-        <v>30065</v>
+        <v>48447</v>
       </c>
       <c r="J71" s="11">
-        <v>48447</v>
+        <v>26706</v>
       </c>
       <c r="K71" s="11">
-        <v>26706</v>
+        <v>28192</v>
       </c>
       <c r="L71" s="11">
-        <v>28192</v>
+        <v>47270</v>
       </c>
       <c r="M71" s="11">
-        <v>47270</v>
+        <v>115331</v>
       </c>
       <c r="N71" s="11">
-        <v>115331</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>20734</v>
+        <v>29494</v>
       </c>
       <c r="F72" s="13">
-        <v>29494</v>
+        <v>21947</v>
       </c>
       <c r="G72" s="13">
-        <v>21947</v>
+        <v>36860</v>
       </c>
       <c r="H72" s="13">
-        <v>36860</v>
+        <v>30065</v>
       </c>
       <c r="I72" s="13">
-        <v>30065</v>
+        <v>48447</v>
       </c>
       <c r="J72" s="13">
-        <v>48447</v>
+        <v>26706</v>
       </c>
       <c r="K72" s="13">
-        <v>26706</v>
+        <v>28192</v>
       </c>
       <c r="L72" s="13">
-        <v>28192</v>
+        <v>47270</v>
       </c>
       <c r="M72" s="13">
-        <v>47270</v>
+        <v>115331</v>
       </c>
       <c r="N72" s="13">
-        <v>115331</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>300113</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>49</v>
       </c>
@@ -2585,7 +2585,7 @@
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="16" t="s">
         <v>50</v>
       </c>
@@ -2622,41 +2622,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>504071</v>
+        <v>543141</v>
       </c>
       <c r="F75" s="13">
-        <v>543141</v>
+        <v>647060</v>
       </c>
       <c r="G75" s="13">
-        <v>647060</v>
+        <v>853974</v>
       </c>
       <c r="H75" s="13">
-        <v>853974</v>
+        <v>1068827</v>
       </c>
       <c r="I75" s="13">
-        <v>1068827</v>
+        <v>1043307</v>
       </c>
       <c r="J75" s="13">
-        <v>1043307</v>
+        <v>1161639</v>
       </c>
       <c r="K75" s="13">
-        <v>1161639</v>
+        <v>1090855</v>
       </c>
       <c r="L75" s="13">
-        <v>1090855</v>
+        <v>1282426</v>
       </c>
       <c r="M75" s="13">
-        <v>1282426</v>
+        <v>943905</v>
       </c>
       <c r="N75" s="13">
-        <v>943905</v>
+        <v>1641593</v>
       </c>
     </row>
   </sheetData>
